--- a/积累库/各类侦探游戏玩法内容.xlsx
+++ b/积累库/各类侦探游戏玩法内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="16170"/>
+    <workbookView windowHeight="15210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>游戏名</t>
   </si>
@@ -27,8 +27,28 @@
     <t>夏洛克福尔摩斯：罪与罚</t>
   </si>
   <si>
-    <t>肖像分析：AD键移动镜头，画框内鼠标移动到亮起地方可点击，据此获得名词信息
-对话QTE，选正确选项，选择错误无惩罚</t>
+    <t xml:space="preserve">现场分析：通过移动镜头，视角内鼠标移动到亮起位置可点击，据此获得名词信息，案件信息,并且播放人物语音解说。
+选项判断：对话QTE，多选项内选择正确选项。
+分析网状图：组合 分析得到的名词，进行推断。
+物件细看：场景内拿起物件，互动分析。
+记忆碎片拼凑：拼图玩法，3D旋转（类似生化危机物件影子开门）+移动记忆块。
+ 大量过场CG。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>十三机兵防卫圈</t>
+  </si>
+  <si>
+    <t>思维云图：将道具场景互动，背包，人物，推进限制等结合为一个系统。</t>
+  </si>
+  <si>
+    <t>夏洛克福尔摩斯：第一章</t>
+  </si>
+  <si>
+    <t>伪装系统</t>
   </si>
 </sst>
 </file>
@@ -41,7 +61,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,13 +85,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,48 +555,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -599,101 +609,98 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,9 +710,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,6 +721,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -783,16 +796,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>683895</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,8 +822,92 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="93980"/>
-          <a:ext cx="4352925" cy="2801620"/>
+          <a:off x="7541895" y="635"/>
+          <a:ext cx="2192655" cy="1220470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400685</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871710" y="635"/>
+          <a:ext cx="2873375" cy="1222375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>583565</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12927965" y="635"/>
+          <a:ext cx="2035810" cy="1209040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,13 +1210,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1128,65 +1225,226 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="4:11">
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+    <row r="4" ht="13.5" spans="1:11">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:11">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" ht="13.5" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="13.5" spans="1:11">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="13.5" spans="1:11">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" ht="13.5" spans="1:11">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" ht="13.5" spans="1:11">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" ht="13.5" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" ht="13.5" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:K4"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="A2:C12"/>
+    <mergeCell ref="D2:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/积累库/各类侦探游戏玩法内容.xlsx
+++ b/积累库/各类侦探游戏玩法内容.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15210"/>
+    <workbookView windowWidth="26655" windowHeight="15735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="各种游戏玩法" sheetId="1" r:id="rId1"/>
+    <sheet name="值得思考的问题" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,39 +16,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>游戏名</t>
   </si>
   <si>
-    <t>玩法&amp;设计</t>
+    <t>玩法&amp;其他</t>
+  </si>
+  <si>
+    <t>说明</t>
   </si>
   <si>
     <t>夏洛克福尔摩斯：罪与罚</t>
   </si>
   <si>
-    <t xml:space="preserve">现场分析：通过移动镜头，视角内鼠标移动到亮起位置可点击，据此获得名词信息，案件信息,并且播放人物语音解说。
-选项判断：对话QTE，多选项内选择正确选项。
-分析网状图：组合 分析得到的名词，进行推断。
-物件细看：场景内拿起物件，互动分析。
-记忆碎片拼凑：拼图玩法，3D旋转（类似生化危机物件影子开门）+移动记忆块。
- 大量过场CG。
+    <t>现场分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 通过移动镜头，视角内鼠标移动到亮起位置可点击，据此获得名词信息，案件信息,并且播放人物语音解说。
+选项判断：多选项内选择正确选项。
+分析网状图：组合 分析得到的名词，进行推断。</t>
+  </si>
+  <si>
+    <t>物件细看</t>
+  </si>
+  <si>
+    <t>场景内拿起物件，互动分析。</t>
+  </si>
+  <si>
+    <t>记忆碎片拼凑</t>
+  </si>
+  <si>
+    <t>拼图玩法，3D旋转（类似生化危机物件影子开门）+移动记忆块。</t>
+  </si>
+  <si>
+    <t>QTE</t>
+  </si>
+  <si>
+    <t>快速按键、当光标到达一定区域时确认。</t>
+  </si>
+  <si>
+    <t>分析台药剂配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按图纸依次倒入药剂原料制作药剂。
 </t>
   </si>
   <si>
+    <t>擦拭书信</t>
+  </si>
+  <si>
+    <t>用药水将被污染的文字还原。</t>
+  </si>
+  <si>
+    <t>超级视线</t>
+  </si>
+  <si>
+    <t>开启后色调变灰，鼠标移动到可互动线索后显示UI文字，可以点击。</t>
+  </si>
+  <si>
+    <t>扳手腕</t>
+  </si>
+  <si>
+    <t>观察人物表情，控制好耐力，进行推动（进攻）、防御（防守）。</t>
+  </si>
+  <si>
+    <t>撬锁</t>
+  </si>
+  <si>
+    <t>齿轮保险箱。</t>
+  </si>
+  <si>
+    <t>文件线索整理</t>
+  </si>
+  <si>
+    <t>在一堆文件中，根据推理发展选择正确的文字进行整理，联立成证据。</t>
+  </si>
+  <si>
+    <t>大量过场CG</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>道德选择</t>
+  </si>
+  <si>
     <t>十三机兵防卫圈</t>
   </si>
   <si>
-    <t>思维云图：将道具场景互动，背包，人物，推进限制等结合为一个系统。</t>
+    <t xml:space="preserve">思维云图
+</t>
+  </si>
+  <si>
+    <t>将道具场景互动，背包，人物，线索等结合为一个系统。</t>
+  </si>
+  <si>
+    <t>多人物剧情</t>
+  </si>
+  <si>
+    <t>类似底特律：变人。</t>
   </si>
   <si>
     <t>夏洛克福尔摩斯：第一章</t>
   </si>
   <si>
     <t>伪装系统</t>
+  </si>
+  <si>
+    <t>1.玩家推理错误后，需不需要惩罚玩家，如果需要怎么惩罚玩家？</t>
+  </si>
+  <si>
+    <t>2.现有玩法过于引导玩家，没有让玩家自行推理的感觉，比起侦探游戏更像是一个解密游戏，这点该怎么解决？</t>
+  </si>
+  <si>
+    <t>3.大多侦探游戏缺乏兴奋状态的心流，节奏缺乏波动，有没有好的设计方案可以避免这种设计方案的发生？</t>
   </si>
 </sst>
 </file>
@@ -420,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -444,12 +526,109 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,7 +740,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,7 +770,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,28 +788,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,10 +818,10 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,26 +889,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -796,16 +1017,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>683895</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>201295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -822,7 +1043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7541895" y="635"/>
+          <a:off x="13733145" y="1249045"/>
           <a:ext cx="2192655" cy="1220470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -838,16 +1059,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>537210</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>191770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400685</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -864,7 +1085,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9871710" y="635"/>
+          <a:off x="18368010" y="1239520"/>
           <a:ext cx="2873375" cy="1222375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -880,16 +1101,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>583565</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>202565</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -906,8 +1127,302 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12927965" y="635"/>
+          <a:off x="16661765" y="635"/>
           <a:ext cx="2035810" cy="1209040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13735050" y="635"/>
+          <a:ext cx="2809875" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13742670" y="2533015"/>
+          <a:ext cx="1716405" cy="1012190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>173990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15984855" y="1233805"/>
+          <a:ext cx="2264410" cy="1245235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>511810</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>183515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15556230" y="2523490"/>
+          <a:ext cx="2100580" cy="1012825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419735</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18936335" y="9525"/>
+          <a:ext cx="1856740" cy="1203325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>639445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17784445" y="2523490"/>
+          <a:ext cx="1909445" cy="1019810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>349885</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>208915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13748385" y="3576320"/>
+          <a:ext cx="2374900" cy="1033145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,10 +1725,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="H22" sqref="H22:T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1221,161 +1736,297 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" ht="13.5" spans="1:11">
+      <c r="H3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" ht="13.5" spans="1:11">
+      <c r="H4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" ht="13.5" spans="1:11">
+      <c r="H5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" ht="13.5" spans="1:11">
+      <c r="H6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" ht="13.5" spans="1:11">
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:11">
+      <c r="H8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" ht="13.5" spans="1:11">
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" ht="13.5" spans="1:11">
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:11">
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1383,68 +2034,600 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="W25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="49">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="A2:C12"/>
-    <mergeCell ref="D2:K12"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:T2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:T3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:T4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:T5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:T6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:T13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:T17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:T18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:T19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:T20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:T21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:T22"/>
+    <mergeCell ref="A2:C17"/>
+    <mergeCell ref="D23:K44"/>
+    <mergeCell ref="A23:C44"/>
+    <mergeCell ref="A18:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1456,14 +2639,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1476,7 +2675,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/积累库/各类侦探游戏玩法内容.xlsx
+++ b/积累库/各类侦探游戏玩法内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26655" windowHeight="15735"/>
+    <workbookView windowWidth="26895" windowHeight="13080"/>
   </bookViews>
   <sheets>
     <sheet name="各种游戏玩法" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>游戏名</t>
   </si>
@@ -33,9 +33,7 @@
     <t>现场分析</t>
   </si>
   <si>
-    <t xml:space="preserve"> 通过移动镜头，视角内鼠标移动到亮起位置可点击，据此获得名词信息，案件信息,并且播放人物语音解说。
-选项判断：多选项内选择正确选项。
-分析网状图：组合 分析得到的名词，进行推断。</t>
+    <t xml:space="preserve"> 通过移动镜头，视角内鼠标移动到亮起位置可点击，据此获得名词信息，案件信息,并且播放人物语音解说。</t>
   </si>
   <si>
     <t>物件细看</t>
@@ -59,8 +57,7 @@
     <t>分析台药剂配置</t>
   </si>
   <si>
-    <t xml:space="preserve">按图纸依次倒入药剂原料制作药剂。
-</t>
+    <t>按图纸依次倒入药剂原料制作药剂。</t>
   </si>
   <si>
     <t>擦拭书信</t>
@@ -93,10 +90,19 @@
     <t>在一堆文件中，根据推理发展选择正确的文字进行整理，联立成证据。</t>
   </si>
   <si>
+    <t>选项判断</t>
+  </si>
+  <si>
+    <t>多选项内选择正确选项。</t>
+  </si>
+  <si>
+    <t>分析网状图</t>
+  </si>
+  <si>
+    <t>组合 【分析得到的名词】，进行推断。</t>
+  </si>
+  <si>
     <t>大量过场CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>道德选择</t>
@@ -122,6 +128,9 @@
   </si>
   <si>
     <t>伪装系统</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1.玩家推理错误后，需不需要惩罚玩家，如果需要怎么惩罚玩家？</t>
@@ -879,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,12 +898,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,9 +910,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -946,11 +946,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1727,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:T22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1742,836 +1760,842 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" ht="13.5" spans="1:11">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
+    <row r="24" ht="13.5" spans="1:11">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="W25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="1:11">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+    <row r="27" ht="13.5" spans="1:11">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+    <row r="28" ht="13.5" spans="1:11">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+    <row r="29" ht="13.5" spans="1:11">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
+    <row r="30" ht="13.5" spans="1:11">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
+    <row r="31" ht="13.5" spans="1:11">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
+    <row r="32" ht="13.5" spans="1:11">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+    <row r="33" ht="13.5" spans="1:11">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
+    <row r="34" ht="13.5" spans="1:11">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+    <row r="35" ht="13.5" spans="1:11">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+    <row r="36" ht="13.5" spans="1:11">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+    <row r="37" ht="13.5" spans="1:11">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
+    <row r="38" ht="13.5" spans="1:11">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+    <row r="39" ht="13.5" spans="1:11">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
+    <row r="40" ht="13.5" spans="1:11">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
+    <row r="41" ht="13.5" spans="1:11">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
+    <row r="42" ht="13.5" spans="1:11">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
+    <row r="43" ht="13.5" spans="1:11">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
+    <row r="44" ht="13.5" spans="1:11">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -2625,9 +2649,9 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="H22:T22"/>
     <mergeCell ref="A2:C17"/>
-    <mergeCell ref="D23:K44"/>
     <mergeCell ref="A23:C44"/>
     <mergeCell ref="A18:C22"/>
+    <mergeCell ref="D23:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2649,17 +2673,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
